--- a/automated_measurements_summary.xlsx
+++ b/automated_measurements_summary.xlsx
@@ -20,36 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initiation time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completion time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coiling Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean (HAI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean (h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4PM</t>
+  </si>
   <si>
     <t xml:space="preserve">Coil 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initiation time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completion time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coiling Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean (HAI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean (h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4PM</t>
   </si>
   <si>
     <t xml:space="preserve">Coil 2</t>
@@ -94,12 +97,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,12 +145,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,6 +187,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -178,6 +211,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -186,21 +279,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="3"/>
@@ -209,230 +300,385 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6" t="s">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="G4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B5" s="10" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>9.55</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="n">
         <v>4.83</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C12" s="10" t="n">
         <v>0.21</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D12" s="10" t="n">
         <v>14.83</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E12" s="10" t="n">
         <v>0.75</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F12" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G12" s="10" t="n">
         <v>0.68</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B13" s="10" t="n">
         <v>5.29</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C13" s="10" t="n">
         <v>0.33</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D13" s="10" t="n">
         <v>15.88</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E13" s="10" t="n">
         <v>0.81</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F13" s="10" t="n">
         <v>10.59</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G13" s="10" t="n">
         <v>0.72</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B14" s="10" t="n">
         <v>7.93</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C14" s="10" t="n">
         <v>0.49</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D14" s="10" t="n">
         <v>16.65</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E14" s="10" t="n">
         <v>0.68</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F14" s="10" t="n">
         <v>8.72</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G14" s="10" t="n">
         <v>0.63</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="G18" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B19" s="10" t="n">
         <v>7.76</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C19" s="10" t="n">
         <v>0.32</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D19" s="10" t="n">
         <v>13.32</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E19" s="10" t="n">
         <v>0.71</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F19" s="10" t="n">
         <v>5.56</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G19" s="10" t="n">
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B20" s="10" t="n">
         <v>8.65</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C20" s="10" t="n">
         <v>0.47</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D20" s="10" t="n">
         <v>15.18</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E20" s="10" t="n">
         <v>0.79</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F20" s="10" t="n">
         <v>6.53</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G20" s="10" t="n">
         <v>0.88</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B21" s="10" t="n">
         <v>11.9</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C21" s="10" t="n">
         <v>0.53</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D21" s="10" t="n">
         <v>17.35</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E21" s="10" t="n">
         <v>0.64</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F21" s="10" t="n">
         <v>5.46</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G21" s="10" t="n">
         <v>0.59</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
+  <mergeCells count="9">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
